--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -88,16 +88,10 @@
     <t>Bmpr1b</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
       <c r="M2">
-        <v>0.050199</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N2">
-        <v>0.100398</v>
+        <v>2.312651</v>
       </c>
       <c r="O2">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P2">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q2">
-        <v>0.018394603633</v>
+        <v>0.2832730235328889</v>
       </c>
       <c r="R2">
-        <v>0.110367621798</v>
+        <v>2.549457211796</v>
       </c>
       <c r="S2">
-        <v>0.01886376472776154</v>
+        <v>0.3329667647397699</v>
       </c>
       <c r="T2">
-        <v>0.0147220684866147</v>
+        <v>0.3845613555487541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +593,57 @@
         <v>25</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.3674653333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.102396</v>
+      </c>
+      <c r="I3">
+        <v>0.5572612813719676</v>
+      </c>
+      <c r="J3">
+        <v>0.5572612813719677</v>
+      </c>
+      <c r="K3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.3664336666666667</v>
-      </c>
-      <c r="H3">
-        <v>1.099301</v>
-      </c>
-      <c r="I3">
-        <v>0.575459875412239</v>
-      </c>
-      <c r="J3">
-        <v>0.575459875412239</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7708836666666666</v>
+        <v>0.519286</v>
       </c>
       <c r="N3">
-        <v>2.312651</v>
+        <v>1.038572</v>
       </c>
       <c r="O3">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P3">
-        <v>0.5893032329676366</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q3">
-        <v>0.2824777285501112</v>
+        <v>0.1908196030853333</v>
       </c>
       <c r="R3">
-        <v>2.542299556951</v>
+        <v>1.144917618512</v>
       </c>
       <c r="S3">
-        <v>0.2896824263525997</v>
+        <v>0.2242945166321977</v>
       </c>
       <c r="T3">
-        <v>0.3391203650235858</v>
+        <v>0.1726999258232136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -658,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +661,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>0.875843</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6195459999999999</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N4">
-        <v>1.239092</v>
+        <v>2.312651</v>
       </c>
       <c r="O4">
-        <v>0.4045682672681883</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P4">
-        <v>0.3157419435722618</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q4">
-        <v>0.2270225124486667</v>
+        <v>0.2250576877547778</v>
       </c>
       <c r="R4">
-        <v>1.362135074692</v>
+        <v>2.025519189793</v>
       </c>
       <c r="S4">
-        <v>0.232812804677897</v>
+        <v>0.2645388863257617</v>
       </c>
       <c r="T4">
-        <v>0.1816968195105119</v>
+        <v>0.3055302915902157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -720,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,294 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>0.875843</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.09074700000000001</v>
+        <v>0.519286</v>
       </c>
       <c r="N5">
-        <v>0.272241</v>
+        <v>1.038572</v>
       </c>
       <c r="O5">
-        <v>0.05925848371192178</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P5">
-        <v>0.06937168705798773</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q5">
-        <v>0.03325275594900001</v>
+        <v>0.1516043360326667</v>
       </c>
       <c r="R5">
-        <v>0.2992748035410001</v>
+        <v>0.909626016196</v>
       </c>
       <c r="S5">
-        <v>0.0341008796539807</v>
+        <v>0.1781998323022706</v>
       </c>
       <c r="T5">
-        <v>0.03992062239152645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.270333</v>
-      </c>
-      <c r="H6">
-        <v>0.810999</v>
-      </c>
-      <c r="I6">
-        <v>0.424540124587761</v>
-      </c>
-      <c r="J6">
-        <v>0.4245401245877611</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.050199</v>
-      </c>
-      <c r="N6">
-        <v>0.100398</v>
-      </c>
-      <c r="O6">
-        <v>0.03278033019113316</v>
-      </c>
-      <c r="P6">
-        <v>0.02558313640211376</v>
-      </c>
-      <c r="Q6">
-        <v>0.013570446267</v>
-      </c>
-      <c r="R6">
-        <v>0.081422677602</v>
-      </c>
-      <c r="S6">
-        <v>0.01391656546337162</v>
-      </c>
-      <c r="T6">
-        <v>0.01086106791549906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.270333</v>
-      </c>
-      <c r="H7">
-        <v>0.810999</v>
-      </c>
-      <c r="I7">
-        <v>0.424540124587761</v>
-      </c>
-      <c r="J7">
-        <v>0.4245401245877611</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7708836666666666</v>
-      </c>
-      <c r="N7">
-        <v>2.312651</v>
-      </c>
-      <c r="O7">
-        <v>0.5033929188287568</v>
-      </c>
-      <c r="P7">
-        <v>0.5893032329676366</v>
-      </c>
-      <c r="Q7">
-        <v>0.208395294261</v>
-      </c>
-      <c r="R7">
-        <v>1.875557648349</v>
-      </c>
-      <c r="S7">
-        <v>0.2137104924761571</v>
-      </c>
-      <c r="T7">
-        <v>0.2501828679440509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.270333</v>
-      </c>
-      <c r="H8">
-        <v>0.810999</v>
-      </c>
-      <c r="I8">
-        <v>0.424540124587761</v>
-      </c>
-      <c r="J8">
-        <v>0.4245401245877611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.239092</v>
-      </c>
-      <c r="O8">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P8">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q8">
-        <v>0.167483728818</v>
-      </c>
-      <c r="R8">
-        <v>1.004902372908</v>
-      </c>
-      <c r="S8">
-        <v>0.1717554625902913</v>
-      </c>
-      <c r="T8">
-        <v>0.1340451240617498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.270333</v>
-      </c>
-      <c r="H9">
-        <v>0.810999</v>
-      </c>
-      <c r="I9">
-        <v>0.424540124587761</v>
-      </c>
-      <c r="J9">
-        <v>0.4245401245877611</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.272241</v>
-      </c>
-      <c r="O9">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P9">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q9">
-        <v>0.024531908751</v>
-      </c>
-      <c r="R9">
-        <v>0.220787178759</v>
-      </c>
-      <c r="S9">
-        <v>0.02515760405794108</v>
-      </c>
-      <c r="T9">
-        <v>0.02945106466646128</v>
+        <v>0.1372084270378166</v>
       </c>
     </row>
   </sheetData>
